--- a/Dictionnaire.xlsx
+++ b/Dictionnaire.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="24000" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire Anais" sheetId="9" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <t>Poids_Autre (constantes)</t>
   </si>
   <si>
-    <t>Beaucoup de donnée manquante (50 %)  : à supprimer ?</t>
+    <t>Beaucoup de données manquantes (50 %)  : à supprimer ?</t>
   </si>
   <si>
     <t>DATE_ENTREE</t>
@@ -743,7 +743,7 @@
     <t>fait</t>
   </si>
   <si>
-    <t>plusieur loc parfois (cherche avec regex mais meme pb, cherche avec cr neuro aussi)
+    <t>plusieurs localisations parfois
 rechercher par fréquence</t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>Hydrocéphalie (complication)</t>
   </si>
   <si>
-    <t>* que faire si discordance entre structuré / non structuré</t>
+    <t>* que faire si discordance entre donées structurées / non structurées</t>
   </si>
   <si>
     <t>DVE_txt</t>
@@ -1802,28 +1802,28 @@
   <sheetPr/>
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+      <selection pane="topRight" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1388888888889" customWidth="1"/>
-    <col min="2" max="2" width="12.8518518518519" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.4259259259259" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.1388888888889" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.712962962963" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5740740740741" style="3" customWidth="1"/>
-    <col min="7" max="7" width="23.5740740740741" customWidth="1"/>
+    <col min="1" max="1" width="27.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="12.847619047619" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.4285714285714" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.1428571428571" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5714285714286" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.5714285714286" customWidth="1"/>
     <col min="8" max="8" width="13" style="4" customWidth="1"/>
-    <col min="9" max="9" width="10.1388888888889" customWidth="1"/>
-    <col min="10" max="10" width="31.8518518518519" style="2" customWidth="1"/>
-    <col min="11" max="11" width="34.4444444444444" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.1428571428571" customWidth="1"/>
+    <col min="10" max="10" width="31.847619047619" style="2" customWidth="1"/>
+    <col min="11" max="11" width="34.447619047619" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:11">
+    <row r="1" ht="30" spans="1:11">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:11">
+    <row r="5" ht="30" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="100.8" spans="1:11">
+    <row r="9" ht="120" spans="1:11">
       <c r="A9" s="5" t="s">
         <v>41</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:11">
+    <row r="10" ht="45" spans="1:11">
       <c r="A10" s="5" t="s">
         <v>45</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" ht="72" spans="1:11">
+    <row r="11" ht="75" spans="1:11">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" ht="86.4" spans="1:11">
+    <row r="12" ht="90" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>51</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="72" spans="1:11">
+    <row r="13" ht="75" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>54</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" ht="100.8" spans="1:11">
+    <row r="14" ht="105" spans="1:11">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="57.6" spans="1:11">
+    <row r="16" ht="60" spans="1:11">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="72" spans="1:11">
+    <row r="17" ht="75" spans="1:11">
       <c r="A17" s="5" t="s">
         <v>68</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" ht="72" spans="1:11">
+    <row r="18" ht="75" spans="1:11">
       <c r="A18" s="5" t="s">
         <v>72</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:11">
+    <row r="19" ht="30" spans="1:11">
       <c r="A19" s="5" t="s">
         <v>75</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" ht="30" spans="1:11">
       <c r="A20" s="5" t="s">
         <v>77</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" ht="28.8" spans="1:11">
+    <row r="21" ht="30" spans="1:11">
       <c r="A21" s="5" t="s">
         <v>82</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:11">
+    <row r="22" ht="30" spans="1:11">
       <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:11">
+    <row r="23" ht="30" spans="1:11">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="28.8" spans="1:11">
+    <row r="24" ht="30" spans="1:11">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" ht="28.8" spans="1:11">
+    <row r="25" ht="30" spans="1:11">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" ht="28.8" spans="1:11">
+    <row r="27" ht="30" spans="1:11">
       <c r="A27" s="5" t="s">
         <v>100</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" ht="30" spans="1:11">
       <c r="A28" s="5" t="s">
         <v>102</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" ht="30" spans="1:11">
       <c r="A29" s="5" t="s">
         <v>105</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" ht="30" spans="1:11">
       <c r="A31" s="5" t="s">
         <v>110</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" ht="30" spans="1:11">
       <c r="A34" s="5" t="s">
         <v>117</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" ht="30" spans="1:11">
       <c r="A36" s="5" t="s">
         <v>121</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" ht="28.8" spans="1:11">
+    <row r="37" ht="30" spans="1:11">
       <c r="A37" s="5" t="s">
         <v>124</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" ht="30" spans="1:11">
       <c r="A38" s="5" t="s">
         <v>126</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" ht="28.8" spans="1:11">
+    <row r="39" ht="45" spans="1:11">
       <c r="A39" s="5" t="s">
         <v>128</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" ht="72" spans="1:11">
+    <row r="40" ht="75" spans="1:11">
       <c r="A40" s="5" t="s">
         <v>132</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" ht="28.8" spans="1:11">
+    <row r="41" ht="30" spans="1:11">
       <c r="A41" s="5" t="s">
         <v>136</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" ht="28.8" spans="1:11">
+    <row r="42" ht="30" spans="1:11">
       <c r="A42" s="5" t="s">
         <v>139</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" ht="28.8" spans="1:11">
+    <row r="43" ht="30" spans="1:11">
       <c r="A43" s="5" t="s">
         <v>142</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" ht="57.6" spans="1:11">
+    <row r="44" ht="60" spans="1:11">
       <c r="A44" s="5" t="s">
         <v>145</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" ht="28.8" spans="1:11">
+    <row r="45" ht="30" spans="1:11">
       <c r="A45" s="5" t="s">
         <v>149</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" ht="72" spans="1:11">
+    <row r="46" ht="90" spans="1:11">
       <c r="A46" s="5" t="s">
         <v>152</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" ht="28.8" spans="1:11">
+    <row r="47" ht="30" spans="1:11">
       <c r="A47" s="5" t="s">
         <v>156</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" ht="28.8" spans="1:11">
+    <row r="48" ht="30" spans="1:11">
       <c r="A48" s="5" t="s">
         <v>160</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" ht="28.8" spans="1:11">
+    <row r="49" ht="30" spans="1:11">
       <c r="A49" s="5" t="s">
         <v>163</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" ht="28.8" spans="1:11">
+    <row r="50" ht="30" spans="1:11">
       <c r="A50" s="5" t="s">
         <v>166</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" ht="86.4" spans="1:11">
+    <row r="51" ht="90" spans="1:11">
       <c r="A51" s="5" t="s">
         <v>169</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" ht="28.8" spans="1:11">
+    <row r="52" ht="45" spans="1:11">
       <c r="A52" s="5" t="s">
         <v>173</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" ht="28.8" spans="1:11">
+    <row r="53" ht="45" spans="1:11">
       <c r="A53" s="5" t="s">
         <v>177</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" ht="28.8" spans="1:11">
+    <row r="54" ht="45" spans="1:11">
       <c r="A54" s="5" t="s">
         <v>180</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" ht="28.8" spans="1:11">
+    <row r="55" ht="45" spans="1:11">
       <c r="A55" s="5" t="s">
         <v>182</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" ht="43.2" spans="1:11">
+    <row r="56" ht="45" spans="1:11">
       <c r="A56" s="5" t="s">
         <v>184</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" ht="28.8" spans="1:11">
+    <row r="57" ht="45" spans="1:11">
       <c r="A57" s="5" t="s">
         <v>187</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" ht="28.8" spans="1:11">
+    <row r="58" ht="30" spans="1:11">
       <c r="A58" s="5" t="s">
         <v>190</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" ht="28.8" spans="1:11">
+    <row r="59" ht="45" spans="1:11">
       <c r="A59" s="5" t="s">
         <v>192</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" ht="43.2" spans="1:11">
+    <row r="60" ht="45" spans="1:11">
       <c r="A60" s="5" t="s">
         <v>194</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" ht="28.8" spans="1:11">
+    <row r="61" ht="45" spans="1:11">
       <c r="A61" s="5" t="s">
         <v>197</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" ht="28.8" spans="1:11">
+    <row r="62" ht="45" spans="1:11">
       <c r="A62" s="5" t="s">
         <v>200</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" ht="28.8" spans="1:11">
+    <row r="63" ht="30" spans="1:11">
       <c r="A63" s="5" t="s">
         <v>203</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" ht="28.8" spans="1:11">
+    <row r="64" ht="45" spans="1:11">
       <c r="A64" s="5" t="s">
         <v>205</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" ht="43.2" spans="1:11">
+    <row r="65" ht="45" spans="1:11">
       <c r="A65" s="5" t="s">
         <v>207</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" ht="28.8" spans="1:11">
+    <row r="66" ht="30" spans="1:11">
       <c r="A66" s="5" t="s">
         <v>211</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" ht="28.8" spans="1:11">
+    <row r="67" ht="30" spans="1:11">
       <c r="A67" s="5" t="s">
         <v>213</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" ht="28.8" spans="1:11">
+    <row r="68" ht="30" spans="1:11">
       <c r="A68" s="5" t="s">
         <v>217</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" ht="57.6" spans="1:11">
+    <row r="69" ht="30" spans="1:11">
       <c r="A69" s="5" t="s">
         <v>219</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" ht="86.4" spans="1:11">
+    <row r="70" ht="90" spans="1:11">
       <c r="A70" s="5" t="s">
         <v>225</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" ht="115.2" spans="1:11">
+    <row r="71" ht="120" spans="1:11">
       <c r="A71" s="5" t="s">
         <v>230</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" ht="28.8" spans="1:11">
+    <row r="72" ht="30" spans="1:11">
       <c r="A72" s="5" t="s">
         <v>233</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" ht="30" spans="1:11">
       <c r="A73" s="5" t="s">
         <v>237</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" ht="28.8" spans="1:11">
+    <row r="74" ht="45" spans="1:11">
       <c r="A74" s="5" t="s">
         <v>241</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" ht="30" spans="1:11">
       <c r="A75" s="5" t="s">
         <v>244</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" ht="28.8" spans="1:11">
+    <row r="76" ht="30" spans="1:11">
       <c r="A76" s="5" t="s">
         <v>246</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" ht="30" spans="1:11">
       <c r="A77" s="5" t="s">
         <v>248</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" ht="28.8" spans="1:11">
+    <row r="78" ht="30" spans="1:11">
       <c r="A78" s="5" t="s">
         <v>250</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" ht="28.8" spans="1:11">
+    <row r="79" ht="30" spans="1:11">
       <c r="A79" s="5" t="s">
         <v>252</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" ht="30" spans="1:11">
       <c r="A80" s="5" t="s">
         <v>254</v>
       </c>
